--- a/test/休日、欠勤申請検索テスト.xlsx
+++ b/test/休日、欠勤申請検索テスト.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="129">
   <si>
     <t>単体テスト</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>選択させずに検索ボタンを押した場合</t>
+  </si>
+  <si>
+    <t>アカウント更新で名前が変わった場合</t>
+  </si>
+  <si>
+    <t>名前表示は更新したものにならずに更新前のものが維持される</t>
+  </si>
+  <si>
+    <t>名前(カナ)表示</t>
+  </si>
+  <si>
+    <t>名前(カナ)表示は更新したものにならずに更新前のものが維持される</t>
   </si>
   <si>
     <t>有休が表示されない</t>
@@ -793,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="6">
-        <v>45371.0</v>
+        <v>45385.0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -818,7 +830,9 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
@@ -842,7 +856,9 @@
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
@@ -866,7 +882,9 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
@@ -890,7 +908,9 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,7 +934,9 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
@@ -938,7 +960,9 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
@@ -962,7 +986,9 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
@@ -986,7 +1012,9 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1010,7 +1038,9 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1064,9 @@
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1090,9 @@
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1116,9 @@
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1142,9 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1168,9 @@
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1194,9 @@
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1178,7 +1220,9 @@
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1246,9 @@
       <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1272,9 @@
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1250,7 +1298,9 @@
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +1324,9 @@
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1298,7 +1350,9 @@
       <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1376,9 @@
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1402,9 @@
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1428,9 @@
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +1454,9 @@
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1480,9 @@
       <c r="E30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1506,9 @@
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1532,9 @@
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1558,9 @@
       <c r="E33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1514,7 +1584,9 @@
       <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1538,7 +1610,9 @@
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1642,9 @@
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1592,7 +1668,9 @@
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H37" s="1" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1694,9 @@
       <c r="E38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H38" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1720,9 @@
       <c r="E39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H39" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,7 +1746,9 @@
       <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H40" s="1" t="s">
         <v>16</v>
       </c>
@@ -1688,7 +1772,9 @@
       <c r="E41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H41" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1798,9 @@
       <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>16</v>
       </c>
@@ -1736,7 +1824,9 @@
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1850,9 @@
       <c r="E44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H44" s="1" t="s">
         <v>16</v>
       </c>
@@ -1784,7 +1876,9 @@
       <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1902,9 @@
       <c r="E46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1928,9 @@
       <c r="E47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H47" s="1" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +1954,9 @@
       <c r="E48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="6"/>
+      <c r="F48" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>16</v>
       </c>
@@ -1880,7 +1980,9 @@
       <c r="E49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H49" s="1" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +2006,9 @@
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H50" s="1" t="s">
         <v>16</v>
       </c>
@@ -1928,7 +2032,9 @@
       <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H51" s="1" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +2058,9 @@
       <c r="E52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H52" s="1" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +2084,9 @@
       <c r="E53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H53" s="1" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2110,9 @@
       <c r="E54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H54" s="1" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2136,9 @@
       <c r="E55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H55" s="1" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2162,9 @@
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H56" s="1" t="s">
         <v>16</v>
       </c>
@@ -2072,7 +2188,9 @@
       <c r="E57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H57" s="1" t="s">
         <v>16</v>
       </c>
@@ -2096,7 +2214,9 @@
       <c r="E58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H58" s="1" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2240,9 @@
       <c r="E59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H59" s="1" t="s">
         <v>16</v>
       </c>
@@ -2144,7 +2266,9 @@
       <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="6"/>
+      <c r="F60" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H60" s="1" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2292,9 @@
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H61" s="1" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2318,9 @@
       <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="6"/>
+      <c r="F62" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>16</v>
       </c>
@@ -2216,7 +2344,9 @@
       <c r="E63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H63" s="1" t="s">
         <v>16</v>
       </c>
@@ -2240,7 +2370,9 @@
       <c r="E64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H64" s="1" t="s">
         <v>16</v>
       </c>
@@ -2264,7 +2396,9 @@
       <c r="E65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H65" s="1" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2422,9 @@
       <c r="E66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="6"/>
+      <c r="F66" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2312,7 +2448,9 @@
       <c r="E67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="6"/>
+      <c r="F67" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H67" s="1" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +2474,9 @@
       <c r="E68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="6"/>
+      <c r="F68" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H68" s="1" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2500,9 @@
       <c r="E69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H69" s="1" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2526,9 @@
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="6"/>
+      <c r="F70" s="6">
+        <v>45385.0</v>
+      </c>
       <c r="H70" s="1" t="s">
         <v>16</v>
       </c>
@@ -2393,18 +2537,56 @@
       </c>
     </row>
     <row r="71">
-      <c r="C71" s="3"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="6"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="7"/>
+      <c r="A71" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="6">
+        <v>45385.0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
-      <c r="C72" s="3"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="6"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="7"/>
+      <c r="A72" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="6">
+        <v>45385.0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="C73" s="3"/>
@@ -3322,7 +3504,7 @@
       <c r="F204" s="6"/>
       <c r="I204" s="7"/>
       <c r="J204" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="205">
@@ -3400,7 +3582,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3468,13 +3650,13 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -3498,13 +3680,13 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -3524,13 +3706,13 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -3550,13 +3732,13 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -3576,13 +3758,13 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -3602,13 +3784,13 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -3628,13 +3810,13 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -3654,13 +3836,13 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -3680,13 +3862,13 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -3706,13 +3888,13 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -3732,13 +3914,13 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -3758,13 +3940,13 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -3784,13 +3966,13 @@
         <v>13.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -3810,13 +3992,13 @@
         <v>14.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
@@ -3836,13 +4018,13 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -3862,13 +4044,13 @@
         <v>16.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -3888,13 +4070,13 @@
         <v>17.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
@@ -3914,13 +4096,13 @@
         <v>18.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
@@ -3940,13 +4122,13 @@
         <v>19.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
@@ -3966,13 +4148,13 @@
         <v>20.0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
@@ -3992,13 +4174,13 @@
         <v>21.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
@@ -4076,7 +4258,7 @@
         <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -4102,7 +4284,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
@@ -4128,7 +4310,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
@@ -4154,7 +4336,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
@@ -4180,7 +4362,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>15</v>
@@ -4206,7 +4388,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
@@ -4232,7 +4414,7 @@
         <v>65</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>15</v>
@@ -4258,7 +4440,7 @@
         <v>65</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>15</v>
@@ -4284,7 +4466,7 @@
         <v>65</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
@@ -4304,13 +4486,13 @@
         <v>33.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>15</v>
@@ -4330,13 +4512,13 @@
         <v>34.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>15</v>
@@ -4356,13 +4538,13 @@
         <v>35.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>15</v>
@@ -4382,13 +4564,13 @@
         <v>36.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
@@ -4411,10 +4593,10 @@
         <v>75</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>15</v>
@@ -4437,10 +4619,10 @@
         <v>75</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
@@ -4460,13 +4642,13 @@
         <v>39.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>15</v>
@@ -4486,13 +4668,13 @@
         <v>40.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>15</v>
@@ -4518,7 +4700,7 @@
         <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>15</v>
@@ -4567,10 +4749,10 @@
         <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>15</v>
@@ -4716,23 +4898,56 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="10"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="6"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="6">
+        <v>45385.0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
-      <c r="B53" s="1"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="6"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="6">
+        <v>45385.0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="10"/>
@@ -5070,12 +5285,12 @@
     </row>
     <row r="102">
       <c r="D102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="D103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
